--- a/forecast_summary_B07VNBC5PS.xlsx
+++ b/forecast_summary_B07VNBC5PS.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" t="n">
         <v>78.84471650262893</v>
       </c>
       <c r="D2" t="n">
-        <v>184.2807402646437</v>
+        <v>187.7593939850238</v>
       </c>
       <c r="E2" t="n">
         <v>42</v>
@@ -511,6 +516,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" t="n">
         <v>71.55903667949386</v>
       </c>
       <c r="D3" t="n">
-        <v>179.5871708527428</v>
+        <v>184.8646372450225</v>
       </c>
       <c r="E3" t="n">
         <v>41</v>
@@ -547,6 +555,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>52.67705164925592</v>
       </c>
       <c r="D4" t="n">
-        <v>162.3232827740067</v>
+        <v>166.4766709505349</v>
       </c>
       <c r="E4" t="n">
         <v>43</v>
@@ -583,6 +594,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>37.23622898048148</v>
       </c>
       <c r="D5" t="n">
-        <v>146.4229267517768</v>
+        <v>146.62268747173</v>
       </c>
       <c r="E5" t="n">
         <v>33</v>
@@ -619,6 +633,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>42.52842955028576</v>
       </c>
       <c r="D6" t="n">
-        <v>150.9892764022754</v>
+        <v>151.8279740906265</v>
       </c>
       <c r="E6" t="n">
         <v>33</v>
@@ -655,6 +672,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" t="n">
         <v>66.92349731138712</v>
       </c>
       <c r="D7" t="n">
-        <v>175.7781139445328</v>
+        <v>171.4478313333467</v>
       </c>
       <c r="E7" t="n">
         <v>35</v>
@@ -691,6 +711,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>86.33731181533156</v>
       </c>
       <c r="D8" t="n">
-        <v>196.6995293507498</v>
+        <v>196.1566248998683</v>
       </c>
       <c r="E8" t="n">
         <v>34</v>
@@ -727,6 +750,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" t="n">
         <v>77.4016510407574</v>
       </c>
       <c r="D9" t="n">
-        <v>179.4062983656118</v>
+        <v>189.1400416510367</v>
       </c>
       <c r="E9" t="n">
         <v>34</v>
@@ -763,6 +789,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="n">
         <v>43.7616675662244</v>
       </c>
       <c r="D10" t="n">
-        <v>152.1199434371152</v>
+        <v>150.984930498593</v>
       </c>
       <c r="E10" t="n">
         <v>34</v>
@@ -799,6 +828,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>14.72908291132472</v>
       </c>
       <c r="D11" t="n">
-        <v>125.366570191714</v>
+        <v>125.4296214397419</v>
       </c>
       <c r="E11" t="n">
         <v>34</v>
@@ -835,6 +867,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>15.58371201392752</v>
       </c>
       <c r="D12" t="n">
-        <v>124.8168457204019</v>
+        <v>131.7036589252597</v>
       </c>
       <c r="E12" t="n">
         <v>34</v>
@@ -871,6 +906,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" t="n">
         <v>41.75928321315811</v>
       </c>
       <c r="D13" t="n">
-        <v>148.3541842773645</v>
+        <v>152.4963909319261</v>
       </c>
       <c r="E13" t="n">
         <v>34</v>
@@ -907,6 +945,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>65.28997072581892</v>
       </c>
       <c r="D14" t="n">
-        <v>176.4618010388818</v>
+        <v>175.1839277639685</v>
       </c>
       <c r="E14" t="n">
         <v>33</v>
@@ -943,6 +984,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>65.19856177106413</v>
       </c>
       <c r="D15" t="n">
-        <v>171.402521865811</v>
+        <v>175.7697843835466</v>
       </c>
       <c r="E15" t="n">
         <v>33</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>47.29381587399173</v>
       </c>
       <c r="D16" t="n">
-        <v>158.7891085771052</v>
+        <v>156.1643536318269</v>
       </c>
       <c r="E16" t="n">
         <v>32</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>33.22707070805125</v>
       </c>
       <c r="D17" t="n">
-        <v>143.1937075676958</v>
+        <v>138.2900023327076</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>34.77695754931687</v>
       </c>
       <c r="D18" t="n">
-        <v>145.789076721821</v>
+        <v>146.3410653077376</v>
       </c>
       <c r="E18" t="n">
         <v>31</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
         <v>43.83104361796201</v>
       </c>
       <c r="D19" t="n">
-        <v>152.1372633069045</v>
+        <v>149.3732247498322</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>46.55612862314667</v>
       </c>
       <c r="D20" t="n">
-        <v>159.0991377100224</v>
+        <v>157.9073193154236</v>
       </c>
       <c r="E20" t="n">
         <v>31</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" t="n">
         <v>41.225497935242</v>
       </c>
       <c r="D21" t="n">
-        <v>157.545756437122</v>
+        <v>150.829804889024</v>
       </c>
       <c r="E21" t="n">
         <v>30</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>GC-WBAX200</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>1015</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>601</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>285</t>
         </is>
       </c>
     </row>
